--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4536" uniqueCount="581">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://docilium.health/fhir/ctpm/StructureDefinition/clinical-study</t>
+    <t>http://docelium.health/StructureDefinition/clinical-study</t>
   </si>
   <si>
     <t>Version</t>
@@ -63,19 +63,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-07T16:24:07+01:00</t>
+    <t>2025-12-07T21:23:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>DOCILIUM</t>
+    <t>DOCELIUM</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>DOCILIUM (http://docilium.org)</t>
+    <t>DOCELIUM (http://docelium.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -468,6 +468,9 @@
     <t>ResearchStudy.identifier</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
@@ -858,7 +861,7 @@
     <t>Additional grouping mechanism or categorization of a research study. Example: FDA regulated device, FDA regulated drug, MPG Paragraph 23b (a German legal requirement), IRB-exempt, etc. Implementation Note: do not use the classifier element to support existing semantics that are already supported thru explicit elements in the resource.</t>
   </si>
   <si>
-    <t>http://docilium.health/fhir/ctpm/ValueSet/therapeutic-areas</t>
+    <t>http://docelium.health/fhir/ctpm/ValueSet/therapeutic-areas</t>
   </si>
   <si>
     <t>ResearchStudy.associatedParty</t>
@@ -1293,6 +1296,534 @@
   </si>
   <si>
     <t>Link to one or more sets of results generated by the study.  Could also link to a research registry holding the results such as ClinicalTrials.gov.</t>
+  </si>
+  <si>
+    <t>clinical-trial-patient</t>
+  </si>
+  <si>
+    <t>http://docelium.health/StructureDefinition/clinical-trial-patient</t>
+  </si>
+  <si>
+    <t>ClinicalTrialPatient</t>
+  </si>
+  <si>
+    <t>Clinical Trial Patient Profile</t>
+  </si>
+  <si>
+    <t>A profile for patients enrolled in clinical trials.</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubjectOfCare Client Resident
+</t>
+  </si>
+  <si>
+    <t>Information about an individual or animal receiving health care services</t>
+  </si>
+  <si>
+    <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
+  </si>
+  <si>
+    <t>Patient.id</t>
+  </si>
+  <si>
+    <t>Patient.meta</t>
+  </si>
+  <si>
+    <t>Patient.implicitRules</t>
+  </si>
+  <si>
+    <t>Patient.language</t>
+  </si>
+  <si>
+    <t>Patient.text</t>
+  </si>
+  <si>
+    <t>Patient.contained</t>
+  </si>
+  <si>
+    <t>Patient.extension</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
+    <t>Patient.identifier</t>
+  </si>
+  <si>
+    <t>An identifier for this patient</t>
+  </si>
+  <si>
+    <t>An identifier for this patient.</t>
+  </si>
+  <si>
+    <t>Patients are almost always assigned specific numerical identifiers.</t>
+  </si>
+  <si>
+    <t>Patient.active</t>
+  </si>
+  <si>
+    <t>Whether this patient's record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this patient record is in active use. 
+Many systems use this property to mark as non-current patients, such as those that have not been seen for a period of time based on an organization's business rules.
+It is often used to filter patient lists to exclude inactive patients
+Deceased patients may also be marked as inactive for the same reasons, but may be active for some time after death.</t>
+  </si>
+  <si>
+    <t>If a record is inactive, and linked to an active record, then future patient/record updates should occur on the other patient.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a patient record as not to be used because it was created in error.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>Patient.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName
+</t>
+  </si>
+  <si>
+    <t>A name associated with the patient</t>
+  </si>
+  <si>
+    <t>A name associated with the individual.</t>
+  </si>
+  <si>
+    <t>A patient may have multiple names with different uses or applicable periods. For animals, the name is a "HumanName" in the sense that is assigned and used by humans and has the same patterns. Animal names may be communicated as given names, and optionally may include a family name.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
+  </si>
+  <si>
+    <t>Patient.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>A contact detail for the individual</t>
+  </si>
+  <si>
+    <t>A contact detail (e.g. a telephone number or an email address) by which the individual may be contacted.</t>
+  </si>
+  <si>
+    <t>A Patient may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification. The address might not go directly to the individual, but may reach another party that is able to proxy for the patient (i.e. home phone, or pet owner's phone).</t>
+  </si>
+  <si>
+    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
+  </si>
+  <si>
+    <t>Patient.gender</t>
+  </si>
+  <si>
+    <t>male | female | other | unknown</t>
+  </si>
+  <si>
+    <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.</t>
+  </si>
+  <si>
+    <t>The gender might not match the biological sex as determined by genetics or the individual's preferred identification. Note that for both humans and particularly animals, there are other legitimate possibilities than male and female, though the vast majority of systems and contexts only support male and female.  Systems providing decision support or enforcing business rules should ideally do this on the basis of Observations dealing with the specific sex or gender aspect of interest (anatomical, chromosomal, social, etc.)  However, because these observations are infrequently recorded, defaulting to the administrative gender is common practice.  Where such defaulting occurs, rule enforcement should allow for the variation between administrative and biological, chromosomal and other gender aspects.  For example, an alert about a hysterectomy on a male should be handled as a warning or overridable error, not a "hard" error.  See the Patient Gender and Sex section for additional information about communicating patient gender and sex.</t>
+  </si>
+  <si>
+    <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
+  </si>
+  <si>
+    <t>The gender of a person used for administrative purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender|5.0.0</t>
+  </si>
+  <si>
+    <t>Patient.birthDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>The date of birth for the individual</t>
+  </si>
+  <si>
+    <t>The date of birth for the individual.</t>
+  </si>
+  <si>
+    <t>Partial dates are allowed if the specific date of birth is unknown. There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternity/infant care systems).</t>
+  </si>
+  <si>
+    <t>Age of the individual drives many clinical processes.</t>
+  </si>
+  <si>
+    <t>Patient.deceased[x]</t>
+  </si>
+  <si>
+    <t>boolean
+dateTime</t>
+  </si>
+  <si>
+    <t>Indicates if the individual is deceased or not</t>
+  </si>
+  <si>
+    <t>Indicates if the individual is deceased or not.</t>
+  </si>
+  <si>
+    <t>If there's no value in the instance, it means there is no statement on whether or not the individual is deceased. Most systems will interpret the absence of a value as a sign of the person being alive.</t>
+  </si>
+  <si>
+    <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
+  </si>
+  <si>
+    <t>Patient.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address
+</t>
+  </si>
+  <si>
+    <t>An address for the individual</t>
+  </si>
+  <si>
+    <t>An address for the individual.</t>
+  </si>
+  <si>
+    <t>Patient may have multiple addresses with different uses or applicable periods.</t>
+  </si>
+  <si>
+    <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
+  </si>
+  <si>
+    <t>Patient.maritalStatus</t>
+  </si>
+  <si>
+    <t>Marital (civil) status of a patient</t>
+  </si>
+  <si>
+    <t>This field contains a patient's most recent marital (civil) status.</t>
+  </si>
+  <si>
+    <t>Most, if not all systems capture it.</t>
+  </si>
+  <si>
+    <t>The domestic partnership status of a person.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/marital-status|5.0.0</t>
+  </si>
+  <si>
+    <t>Patient.multipleBirth[x]</t>
+  </si>
+  <si>
+    <t>boolean
+integer</t>
+  </si>
+  <si>
+    <t>Whether patient is part of a multiple birth</t>
+  </si>
+  <si>
+    <t>Indicates whether the patient is part of a multiple (boolean) or indicates the actual birth order (integer).</t>
+  </si>
+  <si>
+    <t>Where the valueInteger is provided, the number is the birth number in the sequence. E.g. The middle birth in triplets would be valueInteger=2 and the third born would have valueInteger=3 If a boolean value was provided for this triplets example, then all 3 patient records would have valueBoolean=true (the ordering is not indicated).</t>
+  </si>
+  <si>
+    <t>For disambiguation of multiple-birth children, especially relevant where the care provider doesn't meet the patient, such as labs.</t>
+  </si>
+  <si>
+    <t>Patient.photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment
+</t>
+  </si>
+  <si>
+    <t>Image of the patient</t>
+  </si>
+  <si>
+    <t>Image of the patient.</t>
+  </si>
+  <si>
+    <t>Guidelines:
+* Use id photos, not clinical photos.
+* Limit dimensions to thumbnail.
+* Keep byte count low to ease resource updates.</t>
+  </si>
+  <si>
+    <t>Many EHR systems have the capability to capture an image of the patient. Fits with newer social media usage too.</t>
+  </si>
+  <si>
+    <t>Patient.contact</t>
+  </si>
+  <si>
+    <t>A contact party (e.g. guardian, partner, friend) for the patient</t>
+  </si>
+  <si>
+    <t>A contact party (e.g. guardian, partner, friend) for the patient.</t>
+  </si>
+  <si>
+    <t>Contact covers all kinds of contact parties: family members, business contacts, guardians, caregivers. Not applicable to register pedigree and family ties beyond use of having contact.</t>
+  </si>
+  <si>
+    <t>Need to track people you can contact about the patient.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+pat-1:SHALL at least contain a contact's details or a reference to an organization {name.exists() or telecom.exists() or address.exists() or organization.exists()}</t>
+  </si>
+  <si>
+    <t>Patient.contact.id</t>
+  </si>
+  <si>
+    <t>Patient.contact.extension</t>
+  </si>
+  <si>
+    <t>Patient.contact.modifierExtension</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship</t>
+  </si>
+  <si>
+    <t>The kind of relationship</t>
+  </si>
+  <si>
+    <t>The nature of the relationship between the patient and the contact person.</t>
+  </si>
+  <si>
+    <t>Used to determine which contact person is the most relevant to approach, depending on circumstances.</t>
+  </si>
+  <si>
+    <t>The nature of the relationship between a patient and a contact person for that patient.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|5.0.0</t>
+  </si>
+  <si>
+    <t>Patient.contact.name</t>
+  </si>
+  <si>
+    <t>A name associated with the contact person</t>
+  </si>
+  <si>
+    <t>A name associated with the contact person.</t>
+  </si>
+  <si>
+    <t>Contact persons need to be identified by name, but it is uncommon to need details about multiple other names for that contact person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pat-1
+</t>
+  </si>
+  <si>
+    <t>Patient.contact.telecom</t>
+  </si>
+  <si>
+    <t>A contact detail for the person</t>
+  </si>
+  <si>
+    <t>A contact detail for the person, e.g. a telephone number or an email address.</t>
+  </si>
+  <si>
+    <t>Contact may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently, and also to help with identification.</t>
+  </si>
+  <si>
+    <t>Patient.contact.address</t>
+  </si>
+  <si>
+    <t>Address for the contact person</t>
+  </si>
+  <si>
+    <t>Address for the contact person.</t>
+  </si>
+  <si>
+    <t>Need to keep track where the contact person can be contacted per postal mail or visited.</t>
+  </si>
+  <si>
+    <t>Patient.contact.gender</t>
+  </si>
+  <si>
+    <t>Administrative Gender - the gender that the contact person is considered to have for administration and record keeping purposes.</t>
+  </si>
+  <si>
+    <t>Needed to address the person correctly.</t>
+  </si>
+  <si>
+    <t>Patient.contact.organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|5.0.0)
+</t>
+  </si>
+  <si>
+    <t>Organization that is associated with the contact</t>
+  </si>
+  <si>
+    <t>Organization on behalf of which the contact is acting or for which the contact is working.</t>
+  </si>
+  <si>
+    <t>For guardians or business related contacts, the organization is relevant.</t>
+  </si>
+  <si>
+    <t>Patient.contact.period</t>
+  </si>
+  <si>
+    <t>The period during which this contact person or organization is valid to be contacted relating to this patient</t>
+  </si>
+  <si>
+    <t>The period during which this contact person or organization is valid to be contacted relating to this patient.</t>
+  </si>
+  <si>
+    <t>Patient.communication</t>
+  </si>
+  <si>
+    <t>A language which may be used to communicate with the patient about his or her health</t>
+  </si>
+  <si>
+    <t>A language which may be used to communicate with the patient about his or her health.</t>
+  </si>
+  <si>
+    <t>If no language is specified, this *implies* that the default local language is spoken.  If you need to convey proficiency for multiple modes, then you need multiple Patient.Communication associations.   For animals, language is not a relevant field, and should be absent from the instance. If the Patient does not speak the default local language, then the Interpreter Required Standard can be used to explicitly declare that an interpreter is required.</t>
+  </si>
+  <si>
+    <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.</t>
+  </si>
+  <si>
+    <t>Patient.communication.id</t>
+  </si>
+  <si>
+    <t>Patient.communication.extension</t>
+  </si>
+  <si>
+    <t>Patient.communication.modifierExtension</t>
+  </si>
+  <si>
+    <t>Patient.communication.language</t>
+  </si>
+  <si>
+    <t>The language which can be used to communicate with the patient about his or her health</t>
+  </si>
+  <si>
+    <t>The ISO-639-1 alpha 2 code in lower case for the language, optionally followed by a hyphen and the ISO-3166-1 alpha 2 code for the region in upper case; e.g. "en" for English, or "en-US" for American English versus "en-AU" for Australian English.</t>
+  </si>
+  <si>
+    <t>The structure aa-BB with this exact casing is one the most widely used notations for locale. However not all systems actually code this but instead have it as free text. Hence CodeableConcept instead of code as the data type.</t>
+  </si>
+  <si>
+    <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect.</t>
+  </si>
+  <si>
+    <t>Patient.communication.preferred</t>
+  </si>
+  <si>
+    <t>Language preference indicator</t>
+  </si>
+  <si>
+    <t>Indicates whether or not the patient prefers this language (over other languages he masters up a certain level).</t>
+  </si>
+  <si>
+    <t>This language is specifically identified for communicating healthcare information.</t>
+  </si>
+  <si>
+    <t>People that master multiple languages up to certain level may prefer one or more, i.e. feel more confident in communicating in a particular language making other languages sort of a fall back method.</t>
+  </si>
+  <si>
+    <t>Patient.generalPractitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">careProvider
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|5.0.0|Practitioner|5.0.0|PractitionerRole|5.0.0)
+</t>
+  </si>
+  <si>
+    <t>Patient's nominated primary care provider</t>
+  </si>
+  <si>
+    <t>Patient's nominated care provider.</t>
+  </si>
+  <si>
+    <t>This may be the primary care provider (in a GP context), or it may be a patient nominated care manager in a community/disability setting, or even organization that will provide people to perform the care provider roles.  It is not to be used to record Care Teams, these should be in a CareTeam resource that may be linked to the CarePlan or EpisodeOfCare resources.
+Multiple GPs may be recorded against the patient for various reasons, such as a student that has his home GP listed along with the GP at university during the school semesters, or a "fly-in/fly-out" worker that has the onsite GP also included with his home GP to remain aware of medical issues.
+Jurisdictions may decide that they can profile this down to 1 if desired, or 1 per type.</t>
+  </si>
+  <si>
+    <t>Patient.managingOrganization</t>
+  </si>
+  <si>
+    <t>Organization that is the custodian of the patient record</t>
+  </si>
+  <si>
+    <t>Organization that is the custodian of the patient record.</t>
+  </si>
+  <si>
+    <t>There is only one managing organization for a specific patient record. Other organizations will have their own Patient record, and may use the Link property to join the records together (or a Person resource which can include confidence ratings for the association).</t>
+  </si>
+  <si>
+    <t>Need to know who recognizes this patient record, manages and updates it.</t>
+  </si>
+  <si>
+    <t>Patient.link</t>
+  </si>
+  <si>
+    <t>Link to a Patient or RelatedPerson resource that concerns the same actual individual</t>
+  </si>
+  <si>
+    <t>Link to a Patient or RelatedPerson resource that concerns the same actual individual.</t>
+  </si>
+  <si>
+    <t>There is no assumption that linked patient records have mutual links.</t>
+  </si>
+  <si>
+    <t>There are multiple use cases:   
+* Duplicate patient records due to the clerical errors associated with the difficulties of identifying humans consistently, and 
+* Distribution of patient information across multiple servers.</t>
+  </si>
+  <si>
+    <t>Patient.link.id</t>
+  </si>
+  <si>
+    <t>Patient.link.extension</t>
+  </si>
+  <si>
+    <t>Patient.link.modifierExtension</t>
+  </si>
+  <si>
+    <t>Patient.link.other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|5.0.0|RelatedPerson|5.0.0)
+</t>
+  </si>
+  <si>
+    <t>The other patient or related person resource that the link refers to</t>
+  </si>
+  <si>
+    <t>Referencing a RelatedPerson here removes the need to use a Person record to associate a Patient and RelatedPerson as the same individual.</t>
+  </si>
+  <si>
+    <t>Patient.link.type</t>
+  </si>
+  <si>
+    <t>replaced-by | replaces | refer | seealso</t>
+  </si>
+  <si>
+    <t>The type of link between this patient resource and another patient resource.</t>
+  </si>
+  <si>
+    <t>The type of link between this patient resource and another Patient resource, or Patient/RelatedPerson when using the `seealso` code</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/link-type|5.0.0</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1598,6 +2129,168 @@
         <v>38</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1605,7 +2298,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK90"/>
+  <dimension ref="A1:AK135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1614,7 +2307,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.39453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.57421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.8671875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="42.8671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2831,7 +3524,7 @@
         <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>85</v>
@@ -2843,17 +3536,17 @@
         <v>85</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q12" t="s" s="2">
         <v>22</v>
@@ -2922,10 +3615,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2948,13 +3641,13 @@
         <v>22</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -3005,7 +3698,7 @@
         <v>22</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>76</v>
@@ -3025,10 +3718,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3051,13 +3744,13 @@
         <v>22</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -3108,7 +3801,7 @@
         <v>22</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>76</v>
@@ -3128,10 +3821,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3154,13 +3847,13 @@
         <v>85</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -3211,7 +3904,7 @@
         <v>22</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>76</v>
@@ -3231,10 +3924,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3257,13 +3950,13 @@
         <v>22</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -3314,7 +4007,7 @@
         <v>22</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>76</v>
@@ -3334,10 +4027,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3360,13 +4053,13 @@
         <v>22</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -3417,7 +4110,7 @@
         <v>22</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
@@ -3426,7 +4119,7 @@
         <v>84</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>22</v>
@@ -3437,10 +4130,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3469,7 +4162,7 @@
         <v>131</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>133</v>
@@ -3522,7 +4215,7 @@
         <v>22</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
@@ -3542,14 +4235,14 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
@@ -3571,10 +4264,10 @@
         <v>130</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>133</v>
@@ -3629,7 +4322,7 @@
         <v>22</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
@@ -3649,10 +4342,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3675,13 +4368,13 @@
         <v>22</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -3708,13 +4401,13 @@
         <v>22</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AB20" t="s" s="2">
         <v>22</v>
@@ -3732,7 +4425,7 @@
         <v>22</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
@@ -3752,10 +4445,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3778,13 +4471,13 @@
         <v>22</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -3835,7 +4528,7 @@
         <v>22</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>76</v>
@@ -3855,10 +4548,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3881,13 +4574,13 @@
         <v>85</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -3938,7 +4631,7 @@
         <v>22</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>76</v>
@@ -3958,14 +4651,14 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" t="s" s="2">
@@ -3984,17 +4677,17 @@
         <v>85</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q23" t="s" s="2">
         <v>22</v>
@@ -4043,7 +4736,7 @@
         <v>22</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
@@ -4063,10 +4756,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4089,13 +4782,13 @@
         <v>22</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4146,7 +4839,7 @@
         <v>22</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
@@ -4166,10 +4859,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4192,13 +4885,13 @@
         <v>22</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -4249,7 +4942,7 @@
         <v>22</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
@@ -4269,10 +4962,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4298,10 +4991,10 @@
         <v>104</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -4331,10 +5024,10 @@
         <v>108</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AB26" t="s" s="2">
         <v>22</v>
@@ -4352,7 +5045,7 @@
         <v>22</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>84</v>
@@ -4372,10 +5065,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4398,13 +5091,13 @@
         <v>85</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -4431,13 +5124,13 @@
         <v>22</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AB27" t="s" s="2">
         <v>22</v>
@@ -4455,7 +5148,7 @@
         <v>22</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
@@ -4475,10 +5168,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4501,13 +5194,13 @@
         <v>85</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -4534,13 +5227,13 @@
         <v>22</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AB28" t="s" s="2">
         <v>22</v>
@@ -4558,7 +5251,7 @@
         <v>22</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>76</v>
@@ -4578,10 +5271,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4604,13 +5297,13 @@
         <v>85</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -4637,13 +5330,13 @@
         <v>22</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AB29" t="s" s="2">
         <v>22</v>
@@ -4661,7 +5354,7 @@
         <v>22</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
@@ -4681,10 +5374,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4707,13 +5400,13 @@
         <v>22</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -4740,13 +5433,13 @@
         <v>22</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AB30" t="s" s="2">
         <v>22</v>
@@ -4764,7 +5457,7 @@
         <v>22</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
@@ -4784,10 +5477,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4810,13 +5503,13 @@
         <v>85</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -4843,13 +5536,13 @@
         <v>22</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AB31" t="s" s="2">
         <v>22</v>
@@ -4867,7 +5560,7 @@
         <v>22</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
@@ -4887,10 +5580,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4913,13 +5606,13 @@
         <v>85</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -4946,10 +5639,10 @@
         <v>22</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>22</v>
@@ -4970,7 +5663,7 @@
         <v>22</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
@@ -4990,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5016,13 +5709,13 @@
         <v>85</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -5049,13 +5742,13 @@
         <v>22</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AB33" t="s" s="2">
         <v>22</v>
@@ -5073,7 +5766,7 @@
         <v>22</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
@@ -5093,10 +5786,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5119,13 +5812,13 @@
         <v>22</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -5176,7 +5869,7 @@
         <v>22</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>76</v>
@@ -5196,10 +5889,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5222,13 +5915,13 @@
         <v>22</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -5279,7 +5972,7 @@
         <v>22</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
@@ -5299,14 +5992,14 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
@@ -5325,13 +6018,13 @@
         <v>85</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -5382,7 +6075,7 @@
         <v>22</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
@@ -5402,10 +6095,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5428,13 +6121,13 @@
         <v>85</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -5485,7 +6178,7 @@
         <v>22</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
@@ -5505,10 +6198,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5531,13 +6224,13 @@
         <v>22</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -5588,7 +6281,7 @@
         <v>22</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
@@ -5608,10 +6301,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5634,13 +6327,13 @@
         <v>22</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -5671,7 +6364,7 @@
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB39" t="s" s="2">
         <v>22</v>
@@ -5689,7 +6382,7 @@
         <v>22</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
@@ -5709,10 +6402,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5735,19 +6428,19 @@
         <v>22</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>22</v>
@@ -5796,7 +6489,7 @@
         <v>22</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
@@ -5816,10 +6509,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5842,13 +6535,13 @@
         <v>22</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -5899,7 +6592,7 @@
         <v>22</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
@@ -5908,7 +6601,7 @@
         <v>84</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>22</v>
@@ -5919,10 +6612,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5951,7 +6644,7 @@
         <v>131</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>133</v>
@@ -6004,7 +6697,7 @@
         <v>22</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
@@ -6024,14 +6717,14 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
@@ -6053,10 +6746,10 @@
         <v>130</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>133</v>
@@ -6111,7 +6804,7 @@
         <v>22</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
@@ -6131,10 +6824,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6157,13 +6850,13 @@
         <v>22</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -6214,7 +6907,7 @@
         <v>22</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>76</v>
@@ -6234,10 +6927,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6260,13 +6953,13 @@
         <v>22</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -6293,13 +6986,13 @@
         <v>22</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AB45" t="s" s="2">
         <v>22</v>
@@ -6317,7 +7010,7 @@
         <v>22</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>84</v>
@@ -6337,10 +7030,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6363,16 +7056,16 @@
         <v>22</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
@@ -6422,7 +7115,7 @@
         <v>22</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>76</v>
@@ -6442,10 +7135,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6468,13 +7161,13 @@
         <v>22</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -6501,13 +7194,13 @@
         <v>22</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AB47" t="s" s="2">
         <v>22</v>
@@ -6525,7 +7218,7 @@
         <v>22</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>76</v>
@@ -6545,10 +7238,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6571,16 +7264,16 @@
         <v>22</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
@@ -6630,7 +7323,7 @@
         <v>22</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>76</v>
@@ -6650,10 +7343,10 @@
         <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6676,13 +7369,13 @@
         <v>22</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -6733,7 +7426,7 @@
         <v>22</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
@@ -6753,10 +7446,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6779,13 +7472,13 @@
         <v>22</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -6836,7 +7529,7 @@
         <v>22</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
@@ -6845,7 +7538,7 @@
         <v>84</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>22</v>
@@ -6856,10 +7549,10 @@
         <v>3</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6888,7 +7581,7 @@
         <v>131</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>133</v>
@@ -6941,7 +7634,7 @@
         <v>22</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
@@ -6961,14 +7654,14 @@
         <v>3</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
@@ -6990,10 +7683,10 @@
         <v>130</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>133</v>
@@ -7048,7 +7741,7 @@
         <v>22</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>76</v>
@@ -7068,10 +7761,10 @@
         <v>3</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7094,13 +7787,13 @@
         <v>22</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -7127,13 +7820,13 @@
         <v>22</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AB53" t="s" s="2">
         <v>22</v>
@@ -7151,7 +7844,7 @@
         <v>22</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>84</v>
@@ -7171,10 +7864,10 @@
         <v>3</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7197,13 +7890,13 @@
         <v>22</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -7254,7 +7947,7 @@
         <v>22</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
@@ -7274,10 +7967,10 @@
         <v>3</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7300,13 +7993,13 @@
         <v>22</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -7357,7 +8050,7 @@
         <v>22</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
@@ -7377,10 +8070,10 @@
         <v>3</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7403,13 +8096,13 @@
         <v>85</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -7436,13 +8129,13 @@
         <v>22</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AB56" t="s" s="2">
         <v>22</v>
@@ -7460,7 +8153,7 @@
         <v>22</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
@@ -7480,10 +8173,10 @@
         <v>3</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7506,13 +8199,13 @@
         <v>85</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -7563,7 +8256,7 @@
         <v>22</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
@@ -7583,10 +8276,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7609,13 +8302,13 @@
         <v>22</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -7666,7 +8359,7 @@
         <v>22</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
@@ -7675,7 +8368,7 @@
         <v>84</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>22</v>
@@ -7686,10 +8379,10 @@
         <v>3</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7718,7 +8411,7 @@
         <v>131</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>133</v>
@@ -7771,7 +8464,7 @@
         <v>22</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
@@ -7791,14 +8484,14 @@
         <v>3</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" t="s" s="2">
@@ -7820,10 +8513,10 @@
         <v>130</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>133</v>
@@ -7878,7 +8571,7 @@
         <v>22</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
@@ -7898,10 +8591,10 @@
         <v>3</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -7924,13 +8617,13 @@
         <v>22</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -7981,7 +8674,7 @@
         <v>22</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
@@ -8001,10 +8694,10 @@
         <v>3</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8027,13 +8720,13 @@
         <v>22</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -8084,7 +8777,7 @@
         <v>22</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>76</v>
@@ -8104,10 +8797,10 @@
         <v>3</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8130,13 +8823,13 @@
         <v>22</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -8187,7 +8880,7 @@
         <v>22</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
@@ -8207,10 +8900,10 @@
         <v>3</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8233,13 +8926,13 @@
         <v>85</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -8290,7 +8983,7 @@
         <v>22</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>
@@ -8310,14 +9003,14 @@
         <v>3</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
@@ -8336,16 +9029,16 @@
         <v>22</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
@@ -8395,7 +9088,7 @@
         <v>22</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
@@ -8415,10 +9108,10 @@
         <v>3</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8441,13 +9134,13 @@
         <v>22</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -8498,7 +9191,7 @@
         <v>22</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>76</v>
@@ -8507,7 +9200,7 @@
         <v>84</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>22</v>
@@ -8518,10 +9211,10 @@
         <v>3</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8550,7 +9243,7 @@
         <v>131</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>133</v>
@@ -8603,7 +9296,7 @@
         <v>22</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>76</v>
@@ -8623,14 +9316,14 @@
         <v>3</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" t="s" s="2">
@@ -8652,10 +9345,10 @@
         <v>130</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>133</v>
@@ -8710,7 +9403,7 @@
         <v>22</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
@@ -8730,10 +9423,10 @@
         <v>3</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -8759,10 +9452,10 @@
         <v>86</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -8813,7 +9506,7 @@
         <v>22</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
@@ -8833,10 +9526,10 @@
         <v>3</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -8859,13 +9552,13 @@
         <v>22</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -8916,7 +9609,7 @@
         <v>22</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>84</v>
@@ -8936,10 +9629,10 @@
         <v>3</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -8962,13 +9655,13 @@
         <v>22</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -8995,13 +9688,13 @@
         <v>22</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AB71" t="s" s="2">
         <v>22</v>
@@ -9019,7 +9712,7 @@
         <v>22</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>76</v>
@@ -9039,10 +9732,10 @@
         <v>3</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9065,13 +9758,13 @@
         <v>22</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -9122,7 +9815,7 @@
         <v>22</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>76</v>
@@ -9142,10 +9835,10 @@
         <v>3</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9168,17 +9861,17 @@
         <v>22</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q73" t="s" s="2">
         <v>22</v>
@@ -9227,7 +9920,7 @@
         <v>22</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>76</v>
@@ -9247,10 +9940,10 @@
         <v>3</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9273,17 +9966,17 @@
         <v>22</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q74" t="s" s="2">
         <v>22</v>
@@ -9332,7 +10025,7 @@
         <v>22</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>76</v>
@@ -9352,10 +10045,10 @@
         <v>3</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9378,13 +10071,13 @@
         <v>22</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -9435,7 +10128,7 @@
         <v>22</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>76</v>
@@ -9455,10 +10148,10 @@
         <v>3</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9481,13 +10174,13 @@
         <v>22</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
@@ -9538,7 +10231,7 @@
         <v>22</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>76</v>
@@ -9547,7 +10240,7 @@
         <v>84</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>22</v>
@@ -9558,10 +10251,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -9590,7 +10283,7 @@
         <v>131</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>133</v>
@@ -9643,7 +10336,7 @@
         <v>22</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>76</v>
@@ -9663,14 +10356,14 @@
         <v>3</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" t="s" s="2">
@@ -9692,10 +10385,10 @@
         <v>130</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>133</v>
@@ -9750,7 +10443,7 @@
         <v>22</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
@@ -9770,10 +10463,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -9796,13 +10489,13 @@
         <v>22</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -9853,7 +10546,7 @@
         <v>22</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>76</v>
@@ -9873,10 +10566,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -9899,13 +10592,13 @@
         <v>22</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -9932,13 +10625,13 @@
         <v>22</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AB80" t="s" s="2">
         <v>22</v>
@@ -9956,7 +10649,7 @@
         <v>22</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>76</v>
@@ -9976,10 +10669,10 @@
         <v>3</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10002,13 +10695,13 @@
         <v>22</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -10059,7 +10752,7 @@
         <v>22</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>76</v>
@@ -10079,10 +10772,10 @@
         <v>3</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10105,16 +10798,16 @@
         <v>22</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
@@ -10164,7 +10857,7 @@
         <v>22</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>76</v>
@@ -10184,10 +10877,10 @@
         <v>3</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10210,13 +10903,13 @@
         <v>22</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
@@ -10267,7 +10960,7 @@
         <v>22</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>76</v>
@@ -10276,7 +10969,7 @@
         <v>84</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>22</v>
@@ -10287,10 +10980,10 @@
         <v>3</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -10319,7 +11012,7 @@
         <v>131</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>133</v>
@@ -10372,7 +11065,7 @@
         <v>22</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>76</v>
@@ -10392,14 +11085,14 @@
         <v>3</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" t="s" s="2">
@@ -10421,10 +11114,10 @@
         <v>130</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>133</v>
@@ -10479,7 +11172,7 @@
         <v>22</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>76</v>
@@ -10499,10 +11192,10 @@
         <v>3</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -10525,13 +11218,13 @@
         <v>22</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
@@ -10582,7 +11275,7 @@
         <v>22</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>76</v>
@@ -10602,10 +11295,10 @@
         <v>3</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -10628,13 +11321,13 @@
         <v>22</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
@@ -10661,13 +11354,13 @@
         <v>22</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AB87" t="s" s="2">
         <v>22</v>
@@ -10685,7 +11378,7 @@
         <v>22</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>76</v>
@@ -10705,10 +11398,10 @@
         <v>3</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -10731,13 +11424,13 @@
         <v>22</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
@@ -10788,7 +11481,7 @@
         <v>22</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>76</v>
@@ -10808,10 +11501,10 @@
         <v>3</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -10834,13 +11527,13 @@
         <v>22</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -10891,7 +11584,7 @@
         <v>22</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>76</v>
@@ -10911,10 +11604,10 @@
         <v>3</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -10937,13 +11630,13 @@
         <v>85</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -10994,7 +11687,7 @@
         <v>22</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>76</v>
@@ -11006,6 +11699,4759 @@
         <v>22</v>
       </c>
       <c r="AK90" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R91" s="2"/>
+      <c r="S91" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R92" s="2"/>
+      <c r="S92" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R93" s="2"/>
+      <c r="S93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R94" s="2"/>
+      <c r="S94" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R95" s="2"/>
+      <c r="S95" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R96" s="2"/>
+      <c r="S96" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R97" s="2"/>
+      <c r="S97" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R98" s="2"/>
+      <c r="S98" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="Q99" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R99" s="2"/>
+      <c r="S99" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="Q100" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R100" s="2"/>
+      <c r="S100" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Q101" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="P102" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Q102" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R102" s="2"/>
+      <c r="S102" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Q103" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R103" s="2"/>
+      <c r="S103" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="P104" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Q104" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R104" s="2"/>
+      <c r="S104" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="P105" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="Q105" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R105" s="2"/>
+      <c r="S105" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Q106" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R106" s="2"/>
+      <c r="S106" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="P107" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="Q107" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R107" s="2"/>
+      <c r="S107" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="Q108" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R108" s="2"/>
+      <c r="S108" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="P109" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="Q109" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R109" s="2"/>
+      <c r="S109" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="P110" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Q110" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R110" s="2"/>
+      <c r="S110" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="Q111" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R111" s="2"/>
+      <c r="S111" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R112" s="2"/>
+      <c r="S112" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R113" s="2"/>
+      <c r="S113" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="P114" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="Q114" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R114" s="2"/>
+      <c r="S114" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="Q115" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R115" s="2"/>
+      <c r="S115" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="Q116" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R116" s="2"/>
+      <c r="S116" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="P117" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Q117" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R117" s="2"/>
+      <c r="S117" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="O118" s="2"/>
+      <c r="P118" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="Q118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R118" s="2"/>
+      <c r="S118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="O119" s="2"/>
+      <c r="P119" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Q119" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R119" s="2"/>
+      <c r="S119" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="O120" s="2"/>
+      <c r="P120" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="Q120" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R120" s="2"/>
+      <c r="S120" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R121" s="2"/>
+      <c r="S121" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="P122" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Q122" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R122" s="2"/>
+      <c r="S122" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R123" s="2"/>
+      <c r="S123" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="P124" s="2"/>
+      <c r="Q124" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R124" s="2"/>
+      <c r="S124" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="P125" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="Q125" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R125" s="2"/>
+      <c r="S125" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F126" s="2"/>
+      <c r="G126" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="P126" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="Q126" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R126" s="2"/>
+      <c r="S126" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="O127" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="P127" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="Q127" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R127" s="2"/>
+      <c r="S127" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="F128" s="2"/>
+      <c r="G128" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R128" s="2"/>
+      <c r="S128" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F129" s="2"/>
+      <c r="G129" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="P129" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="Q129" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R129" s="2"/>
+      <c r="S129" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="P130" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="Q130" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R130" s="2"/>
+      <c r="S130" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F131" s="2"/>
+      <c r="G131" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R131" s="2"/>
+      <c r="S131" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C132" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="F132" s="2"/>
+      <c r="G132" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O132" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="P132" s="2"/>
+      <c r="Q132" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R132" s="2"/>
+      <c r="S132" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C133" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="P133" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="Q133" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R133" s="2"/>
+      <c r="S133" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="C134" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F134" s="2"/>
+      <c r="G134" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O134" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="P134" s="2"/>
+      <c r="Q134" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R134" s="2"/>
+      <c r="S134" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C135" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R135" s="2"/>
+      <c r="S135" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK135" t="s" s="2">
         <v>96</v>
       </c>
     </row>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-07T21:23:47+01:00</t>
+    <t>2025-12-07T21:41:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
